--- a/src/assets/data/2_Gestion de la Calidad/Formatos/GC-FOR-011 Competencia de Auditores UM.xlsx
+++ b/src/assets/data/2_Gestion de la Calidad/Formatos/GC-FOR-011 Competencia de Auditores UM.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="SGC-FOR-11" sheetId="1" r:id="rId3"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
   <si>
     <t>COMPETENCIA DE AUDITORES U.M</t>
   </si>
@@ -39,28 +39,28 @@
     <t>NOMBRE DEL PROCESO:</t>
   </si>
   <si>
+    <t>RESPONSABLE INDICADOR:</t>
+  </si>
+  <si>
+    <t>OBJETIVO DEL PROCESO:</t>
+  </si>
+  <si>
+    <t>NOMBRE DEL INDICADOR:</t>
+  </si>
+  <si>
+    <t>FÓRMULA</t>
+  </si>
+  <si>
+    <t>FRECUENCIA DE MEDICIÓN Y ANÁLISIS</t>
+  </si>
+  <si>
+    <t>META DEL INDICADOR</t>
+  </si>
+  <si>
+    <t>TOMA DE DATOS:</t>
+  </si>
+  <si>
     <t>COMPETENCIA DE AUDITORES</t>
-  </si>
-  <si>
-    <t>RESPONSABLE INDICADOR:</t>
-  </si>
-  <si>
-    <t>OBJETIVO DEL PROCESO:</t>
-  </si>
-  <si>
-    <t>NOMBRE DEL INDICADOR:</t>
-  </si>
-  <si>
-    <t>FÓRMULA</t>
-  </si>
-  <si>
-    <t>FRECUENCIA DE MEDICIÓN Y ANÁLISIS</t>
-  </si>
-  <si>
-    <t>META DEL INDICADOR</t>
-  </si>
-  <si>
-    <t>TOMA DE DATOS:</t>
   </si>
   <si>
     <t>NOMBRE:</t>
@@ -1006,7 +1006,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -1017,7 +1017,7 @@
     <xdr:ext cx="1343025" cy="1028700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Imagen"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Imagen"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1045,7 +1045,7 @@
     <xdr:ext cx="1038225" cy="1028700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Imagen"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Imagen"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1067,7 +1067,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1141,21 +1141,19 @@
       <c r="A5" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="26" t="s">
-        <v>7</v>
-      </c>
+      <c r="B5" s="26"/>
       <c r="C5" s="27"/>
       <c r="D5" s="27"/>
       <c r="E5" s="28"/>
       <c r="F5" s="29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G5" s="26"/>
       <c r="H5" s="30"/>
     </row>
     <row r="6" ht="30.0" customHeight="1">
       <c r="A6" s="31" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="32"/>
       <c r="C6" s="33"/>
@@ -1167,7 +1165,7 @@
     </row>
     <row r="7" ht="30.0" customHeight="1">
       <c r="A7" s="31" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="35"/>
       <c r="C7" s="33"/>
@@ -1179,7 +1177,7 @@
     </row>
     <row r="8" ht="30.0" customHeight="1">
       <c r="A8" s="31" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="35"/>
       <c r="C8" s="33"/>
@@ -1191,7 +1189,7 @@
     </row>
     <row r="9" ht="30.0" customHeight="1">
       <c r="A9" s="31" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="35"/>
       <c r="C9" s="33"/>
@@ -1203,7 +1201,7 @@
     </row>
     <row r="10" ht="30.0" customHeight="1">
       <c r="A10" s="31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" s="36"/>
       <c r="C10" s="33"/>
@@ -1215,7 +1213,7 @@
     </row>
     <row r="11" ht="30.0" customHeight="1">
       <c r="A11" s="37" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" s="35"/>
       <c r="C11" s="33"/>
@@ -1237,7 +1235,7 @@
     </row>
     <row r="13" ht="30.0" customHeight="1">
       <c r="A13" s="40" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1805,7 +1803,7 @@
   </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup fitToHeight="0" orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;RVersión No. 01 Fecha de Aprobación: Enero de 2018</oddFooter>
   </headerFooter>
